--- a/EndothelialCluster14.xlsx
+++ b/EndothelialCluster14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Gene Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Analysis-Genes-Endothelial-Cells-Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E3A5DB-8809-4BB6-9742-C222AB6AD2CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3254521-3788-4E21-A1F1-E9F7C8830618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="480" windowWidth="7570" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
-    <t>Gene type</t>
-  </si>
-  <si>
-    <t>Gene name</t>
-  </si>
-  <si>
     <t>Protein Coding</t>
   </si>
   <si>
-    <t>Max Expression</t>
-  </si>
-  <si>
-    <t>Max Cluster</t>
-  </si>
-  <si>
-    <t>Second Cluster</t>
-  </si>
-  <si>
     <t>Stab2</t>
   </si>
   <si>
@@ -316,6 +301,21 @@
   </si>
   <si>
     <t>Zmiz1</t>
+  </si>
+  <si>
+    <t>GeneName</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t>MaxExpression</t>
+  </si>
+  <si>
+    <t>MaxCluster</t>
+  </si>
+  <si>
+    <t>SecondCluster</t>
   </si>
 </sst>
 </file>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,27 +650,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>4740</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>671</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>412</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1170</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>795</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>827</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>942</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>686</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>494</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>456</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>482</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>407</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1510</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>888</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>545</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1720</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>588</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>602</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>579</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>740</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1550</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>891</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>711</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1210</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>574</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>665</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>546</v>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>440</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>724</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>755</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>1050</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1250</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>567</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>474</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>402</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>530</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>649</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>712</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>519</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>526</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>450</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>461</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>405</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>508</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>2210</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>1750</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>497</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>2010</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>600</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>595</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>939</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>615</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>916</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>451</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>578</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>405</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>524</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>443</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1050</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>771</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>1690</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>563</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>909</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>481</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>483</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>2150</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>960</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>1080</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>2240</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>1660</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>2290</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>428</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>791</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>417</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>963</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>3380</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>915</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>705</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>1910</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>589</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>535</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>518</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>1300</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>473</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>1230</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>549</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>661</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>841</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>932</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>1070</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>477</v>
